--- a/biology/Médecine/Les_Yeux_ouverts_(documentaire)/Les_Yeux_ouverts_(documentaire).xlsx
+++ b/biology/Médecine/Les_Yeux_ouverts_(documentaire)/Les_Yeux_ouverts_(documentaire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Yeux ouverts est un documentaire français réalisé par Frédéric Chaudier, sorti en 2010[1].
-Ce documentaire, qui se déroule dans la Maison médicale Jeanne-Garnier, traite du sujet des soins palliatifs[2].
-Le réalisateur y décrit le quotidien de ces malades en fin de vie et le personnel travaillant sans relâche à préserver la dignité de leurs patients[3].
+Les Yeux ouverts est un documentaire français réalisé par Frédéric Chaudier, sorti en 2010.
+Ce documentaire, qui se déroule dans la Maison médicale Jeanne-Garnier, traite du sujet des soins palliatifs.
+Le réalisateur y décrit le quotidien de ces malades en fin de vie et le personnel travaillant sans relâche à préserver la dignité de leurs patients.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Scénario : Frédéric Chaudier, Patricia Mortagne
 Durée : 93 minutes
